--- a/Prelim_Data/Central_Valley/Central_Valley_50_95.xlsx
+++ b/Prelim_Data/Central_Valley/Central_Valley_50_95.xlsx
@@ -673,7 +673,7 @@
         <v>3.10601742007992</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02549195762010052</v>
+        <v>0.02549195762010053</v>
       </c>
       <c r="P2" t="n">
         <v>0.96</v>
@@ -1033,7 +1033,7 @@
         <v>30.41176470588235</v>
       </c>
       <c r="N5" t="n">
-        <v>8.207563025210085</v>
+        <v>8.207563025210083</v>
       </c>
       <c r="O5" t="n">
         <v>0.0009469269625906729</v>
@@ -1278,7 +1278,7 @@
         <v>3.162820453777901</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00481318968487814</v>
+        <v>0.004813189684878138</v>
       </c>
       <c r="P7" t="n">
         <v>0.9399999999999999</v>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="AK13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="AK14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2609,7 +2609,7 @@
         <v>3.589363737038155</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009845425644055642</v>
+        <v>0.009845425644055645</v>
       </c>
       <c r="P18" t="n">
         <v>0.86</v>
@@ -4061,7 +4061,7 @@
         <v>10.52864583333333</v>
       </c>
       <c r="O30" t="n">
-        <v>0.07811873031498119</v>
+        <v>0.07811873031498129</v>
       </c>
       <c r="P30" t="n">
         <v>0.64</v>
@@ -4300,7 +4300,7 @@
         <v>18.57142857142857</v>
       </c>
       <c r="N32" t="n">
-        <v>3.103713151927438</v>
+        <v>3.103713151927437</v>
       </c>
       <c r="O32" t="n">
         <v>0.00861773421676568</v>
@@ -4424,7 +4424,7 @@
         <v>29.25</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1402879772438874</v>
+        <v>0.1402879772438876</v>
       </c>
       <c r="P33" t="n">
         <v>0.4</v>
@@ -4545,7 +4545,7 @@
         <v>17.23</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01860710227192391</v>
+        <v>0.01860710227192392</v>
       </c>
       <c r="P34" t="n">
         <v>0.4</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="AK36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="AK37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -5150,7 +5150,7 @@
         <v>32.54166666666666</v>
       </c>
       <c r="O39" t="n">
-        <v>0.4125248503407557</v>
+        <v>0.412524850340755</v>
       </c>
       <c r="P39" t="n">
         <v>0.12</v>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="AK40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="AK41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="AK43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="AK44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="AK52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -7211,7 +7211,7 @@
         <v>14.97156862745098</v>
       </c>
       <c r="O56" t="n">
-        <v>0.08052547057925834</v>
+        <v>0.08052547057925852</v>
       </c>
       <c r="P56" t="n">
         <v>0.34</v>
@@ -7332,7 +7332,7 @@
         <v>26.08194444444445</v>
       </c>
       <c r="O57" t="n">
-        <v>0.08906252763741355</v>
+        <v>0.08906252763741357</v>
       </c>
       <c r="P57" t="n">
         <v>0.36</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="AK60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -7813,7 +7813,7 @@
         <v>20</v>
       </c>
       <c r="N61" t="n">
-        <v>3.469658995974785</v>
+        <v>3.469658995974786</v>
       </c>
       <c r="O61" t="n">
         <v>0.002165267864425768</v>
@@ -8297,7 +8297,7 @@
         <v>19.69230769230769</v>
       </c>
       <c r="N65" t="n">
-        <v>3.52912087912088</v>
+        <v>3.529120879120879</v>
       </c>
       <c r="O65" t="n">
         <v>0.003830152441421337</v>
@@ -8542,7 +8542,7 @@
         <v>19.84375</v>
       </c>
       <c r="O67" t="n">
-        <v>0.01099562600072402</v>
+        <v>0.01099562600072403</v>
       </c>
       <c r="P67" t="n">
         <v>0.4444444444444444</v>
@@ -8856,7 +8856,7 @@
         </is>
       </c>
       <c r="AK69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -8902,16 +8902,16 @@
         <v>28.40625</v>
       </c>
       <c r="N70" t="n">
-        <v>10.91197916666667</v>
+        <v>10.93350694444444</v>
       </c>
       <c r="O70" t="n">
-        <v>0.008225045485288884</v>
+        <v>0.008225483830074253</v>
       </c>
       <c r="P70" t="n">
         <v>0.64</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.71875</v>
+        <v>2.6875</v>
       </c>
       <c r="R70" t="n">
         <v>146.6129032258065</v>
@@ -9026,7 +9026,7 @@
         <v>2.741395598643498</v>
       </c>
       <c r="O71" t="n">
-        <v>0.003885208861282885</v>
+        <v>0.003885208861282886</v>
       </c>
       <c r="P71" t="n">
         <v>0.84</v>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="AK73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -9507,10 +9507,10 @@
         <v>20.96774193548387</v>
       </c>
       <c r="N75" t="n">
-        <v>3.402378983024144</v>
+        <v>3.402378983024145</v>
       </c>
       <c r="O75" t="n">
-        <v>0.001079330339997737</v>
+        <v>0.001079330339997736</v>
       </c>
       <c r="P75" t="n">
         <v>0.62</v>
@@ -9870,10 +9870,10 @@
         <v>19.59523809523809</v>
       </c>
       <c r="N78" t="n">
-        <v>3.495971620971621</v>
+        <v>3.49597162097162</v>
       </c>
       <c r="O78" t="n">
-        <v>0.006176649759310393</v>
+        <v>0.006176649759310394</v>
       </c>
       <c r="P78" t="n">
         <v>0.84</v>
@@ -10115,7 +10115,7 @@
         <v>3.07278971028971</v>
       </c>
       <c r="O80" t="n">
-        <v>0.004193311531737251</v>
+        <v>0.004193311531737252</v>
       </c>
       <c r="P80" t="n">
         <v>0.52</v>
@@ -16161,32 +16161,32 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001630920151226345</v>
+        <v>0.09344799392558367</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.15031947161586</v>
+        <v>-1.677483394552118</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2595918367346939</v>
+        <v>-0.2142857142857143</v>
       </c>
       <c r="P5" t="n">
-        <v>-318</v>
+        <v>-87</v>
       </c>
       <c r="Q5" t="n">
-        <v>10125.33333333333</v>
+        <v>2628.333333333333</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-0.1091269841269841</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.527777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -17526,32 +17526,32 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008071074200159956</v>
+        <v>0.1099636292968564</v>
       </c>
       <c r="N26" t="n">
-        <v>3.350345768987782</v>
+        <v>1.598356637186201</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3208163265306123</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="P26" t="n">
-        <v>393</v>
+        <v>104</v>
       </c>
       <c r="Q26" t="n">
-        <v>13689.66666666667</v>
+        <v>4152.666666666667</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01818181818181818</v>
+        <v>0.007905982905982906</v>
       </c>
       <c r="S26" t="n">
-        <v>1.102462121212121</v>
+        <v>1.54017094017094</v>
       </c>
     </row>
     <row r="27">
@@ -17858,19 +17858,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8795567112899128</v>
+        <v>0.9523825905788506</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.1515311868921733</v>
+        <v>-0.0597150429446484</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.01387755102040816</v>
+        <v>-0.006205673758865249</v>
       </c>
       <c r="P31" t="n">
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="Q31" t="n">
-        <v>11149</v>
+        <v>10095.66666666667</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -17916,32 +17916,32 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0008169903027710479</v>
+        <v>0.9401083689080136</v>
       </c>
       <c r="N32" t="n">
-        <v>3.346973465306553</v>
+        <v>0.07513365721922702</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3126530612244898</v>
+        <v>0.01231527093596059</v>
       </c>
       <c r="P32" t="n">
-        <v>383</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>13026.33333333333</v>
+        <v>2834.333333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.7196969696969695</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="33">
@@ -18371,26 +18371,26 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.03460249472236532</v>
+        <v>0.6157503017697474</v>
       </c>
       <c r="N39" t="n">
-        <v>2.112979824914912</v>
+        <v>0.5018823210851089</v>
       </c>
       <c r="O39" t="n">
-        <v>0.116734693877551</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="P39" t="n">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="Q39" t="n">
-        <v>4516.333333333333</v>
+        <v>1016.333333333333</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -19808,25 +19808,25 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.9060186400575769</v>
+        <v>0.7214746342177878</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.1180618641607536</v>
+        <v>0.3564886717836127</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.01224489795918367</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="P61" t="n">
-        <v>-15</v>
+        <v>35</v>
       </c>
       <c r="Q61" t="n">
-        <v>14061.66666666667</v>
+        <v>9096.333333333334</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>0.007575757575757569</v>
       </c>
       <c r="S61" t="n">
-        <v>2.283333333333333</v>
+        <v>2.440909090909091</v>
       </c>
     </row>
     <row r="62">
@@ -20068,25 +20068,25 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2943325551067375</v>
+        <v>0.8123923688472134</v>
       </c>
       <c r="N65" t="n">
-        <v>1.048664507320642</v>
+        <v>-0.2373408560833091</v>
       </c>
       <c r="O65" t="n">
-        <v>0.09714285714285714</v>
+        <v>-0.03439153439153439</v>
       </c>
       <c r="P65" t="n">
-        <v>119</v>
+        <v>-13</v>
       </c>
       <c r="Q65" t="n">
-        <v>12661.66666666667</v>
+        <v>2556.333333333333</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>-0.03003968253968263</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>3.755535714285716</v>
       </c>
     </row>
     <row r="66">
@@ -20133,25 +20133,25 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2432515208896247</v>
+        <v>0.3660827184679289</v>
       </c>
       <c r="N66" t="n">
-        <v>1.166898105999516</v>
+        <v>-0.9038353419323745</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1126530612244898</v>
+        <v>-0.1051051051051051</v>
       </c>
       <c r="P66" t="n">
-        <v>138</v>
+        <v>-70</v>
       </c>
       <c r="Q66" t="n">
-        <v>13784</v>
+        <v>5828</v>
       </c>
       <c r="R66" t="n">
-        <v>0.005555555555555536</v>
+        <v>-0.03858560794044666</v>
       </c>
       <c r="S66" t="n">
-        <v>1.988888888888889</v>
+        <v>3.617617866004963</v>
       </c>
     </row>
     <row r="67">
@@ -20364,25 +20364,25 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6583717090007821</v>
+        <v>0.6339498028447381</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.4421623771013298</v>
+        <v>-0.476174867647586</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.05806451612903226</v>
+        <v>-0.06236559139784946</v>
       </c>
       <c r="G70" t="n">
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="H70" t="n">
         <v>3457.666666666667</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.05</v>
+        <v>-0.05128205128205127</v>
       </c>
       <c r="J70" t="n">
-        <v>8.416666666666668</v>
+        <v>8.435897435897436</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -20393,16 +20393,16 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.2814805261445987</v>
+        <v>0.2738534999027467</v>
       </c>
       <c r="N70" t="n">
-        <v>-1.076999417007449</v>
+        <v>-1.094231407679569</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.1028571428571429</v>
+        <v>-0.1044897959183674</v>
       </c>
       <c r="P70" t="n">
-        <v>-126</v>
+        <v>-128</v>
       </c>
       <c r="Q70" t="n">
         <v>13470.66666666667</v>
@@ -20458,25 +20458,25 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.9131363931516217</v>
+        <v>0.4888249449426469</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1090833344927771</v>
+        <v>-0.6921789680474556</v>
       </c>
       <c r="O71" t="n">
-        <v>0.01142857142857143</v>
+        <v>-0.07149758454106281</v>
       </c>
       <c r="P71" t="n">
-        <v>14</v>
+        <v>-74</v>
       </c>
       <c r="Q71" t="n">
-        <v>14202.66666666667</v>
+        <v>11122.66666666667</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>-0.01388888888888889</v>
       </c>
       <c r="S71" t="n">
-        <v>1.934873949579832</v>
+        <v>2.3125</v>
       </c>
     </row>
     <row r="72">
@@ -20718,25 +20718,25 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.3383920127132152</v>
+        <v>0.5748247878461354</v>
       </c>
       <c r="N75" t="n">
-        <v>0.9573472522903536</v>
+        <v>-0.5609600264316629</v>
       </c>
       <c r="O75" t="n">
-        <v>0.09142857142857143</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="P75" t="n">
-        <v>112</v>
+        <v>-42</v>
       </c>
       <c r="Q75" t="n">
-        <v>13443.33333333333</v>
+        <v>5342</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>-0.01044383270549599</v>
       </c>
       <c r="S75" t="n">
-        <v>1.666666666666667</v>
+        <v>2.18276707234618</v>
       </c>
     </row>
     <row r="76">
@@ -20776,32 +20776,32 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.02223101438585662</v>
+        <v>0.5358598692967174</v>
       </c>
       <c r="N76" t="n">
-        <v>2.286397501290173</v>
+        <v>0.619085751600795</v>
       </c>
       <c r="O76" t="n">
-        <v>0.2220408163265306</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="P76" t="n">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="Q76" t="n">
-        <v>14048.66666666667</v>
+        <v>7892.666666666667</v>
       </c>
       <c r="R76" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.008130215649012631</v>
       </c>
       <c r="S76" t="n">
-        <v>1.180555555555556</v>
+        <v>1.837395687019747</v>
       </c>
     </row>
     <row r="77">
@@ -20913,25 +20913,25 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0.8869230368864609</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>0.142198727497721</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>0.01545893719806763</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q78" t="n">
-        <v>14207.33333333333</v>
+        <v>11127.33333333333</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>3.121428571428571</v>
+        <v>3.171428571428572</v>
       </c>
     </row>
     <row r="79">
@@ -21036,32 +21036,32 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0222946670402977</v>
+        <v>0.3069912409644038</v>
       </c>
       <c r="N80" t="n">
-        <v>2.285309828474994</v>
+        <v>1.021555684791887</v>
       </c>
       <c r="O80" t="n">
-        <v>0.2106122448979592</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="P80" t="n">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="Q80" t="n">
-        <v>12646.66666666667</v>
+        <v>3113.333333333333</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="S80" t="n">
-        <v>1.583333333333333</v>
+        <v>2.6375</v>
       </c>
     </row>
     <row r="81">
@@ -21173,25 +21173,25 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2103737252164306</v>
+        <v>0.858673521284679</v>
       </c>
       <c r="N82" t="n">
-        <v>-1.252538454368466</v>
+        <v>0.1780629720586193</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.12</v>
+        <v>0.0231729055258467</v>
       </c>
       <c r="P82" t="n">
-        <v>-147</v>
+        <v>13</v>
       </c>
       <c r="Q82" t="n">
-        <v>13587</v>
+        <v>4541.666666666667</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>0.003654970760233928</v>
       </c>
       <c r="S82" t="n">
-        <v>2</v>
+        <v>2.38969298245614</v>
       </c>
     </row>
   </sheetData>
@@ -21542,32 +21542,32 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.410746198342077</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.8225811910567383</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.1059113300492611</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-43</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2607</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.006609312838893766</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.715913777802244</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-0.2236734693877551</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-274</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>10104</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22914,25 +22914,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05505295988740344</v>
+        <v>0.3249311654768372</v>
       </c>
       <c r="N26" t="n">
-        <v>1.918458022829547</v>
+        <v>-0.984375</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1836734693877551</v>
+        <v>-0.1212121212121212</v>
       </c>
       <c r="P26" t="n">
-        <v>225</v>
+        <v>-64</v>
       </c>
       <c r="Q26" t="n">
-        <v>13633</v>
+        <v>4096</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06666666666666667</v>
+        <v>-0.08514492753623187</v>
       </c>
       <c r="S26" t="n">
-        <v>5.866666666666667</v>
+        <v>12.36231884057971</v>
       </c>
     </row>
     <row r="27">
@@ -23239,19 +23239,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7462007615069051</v>
+        <v>0.8101656932688071</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.3236529948302891</v>
+        <v>-0.2402122813141875</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.02857142857142857</v>
+        <v>-0.02216312056737589</v>
       </c>
       <c r="P31" t="n">
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="Q31" t="n">
-        <v>11035.66666666667</v>
+        <v>9982.333333333334</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -23297,32 +23297,32 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001005857404602573</v>
+        <v>0.9849455743562765</v>
       </c>
       <c r="N32" t="n">
-        <v>3.288883243142922</v>
+        <v>-0.01886904412032354</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3069387755102041</v>
+        <v>-0.004926108374384237</v>
       </c>
       <c r="P32" t="n">
-        <v>376</v>
+        <v>-2</v>
       </c>
       <c r="Q32" t="n">
-        <v>13000.66666666667</v>
+        <v>2808.666666666667</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.46875</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -23752,26 +23752,26 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.03426923351078015</v>
+        <v>0.6128224102281419</v>
       </c>
       <c r="N39" t="n">
-        <v>2.116889423463748</v>
+        <v>0.5060487741189207</v>
       </c>
       <c r="O39" t="n">
-        <v>0.116734693877551</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="P39" t="n">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="Q39" t="n">
-        <v>4499.666666666667</v>
+        <v>999.6666666666666</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -25189,25 +25189,25 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.2095866155190496</v>
+        <v>0.3002074359872218</v>
       </c>
       <c r="N61" t="n">
-        <v>-1.254702947074745</v>
+        <v>-1.035988653519739</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.1216326530612245</v>
+        <v>-0.1096345514950166</v>
       </c>
       <c r="P61" t="n">
-        <v>-149</v>
+        <v>-99</v>
       </c>
       <c r="Q61" t="n">
-        <v>13913.66666666667</v>
+        <v>8948.333333333334</v>
       </c>
       <c r="R61" t="n">
-        <v>-0.025</v>
+        <v>-0.03571428571428571</v>
       </c>
       <c r="S61" t="n">
-        <v>4.6125</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="62">
@@ -25449,25 +25449,25 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.3319455418536887</v>
+        <v>0.6755034011772314</v>
       </c>
       <c r="N65" t="n">
-        <v>0.9702025461264365</v>
+        <v>-0.4186069613366101</v>
       </c>
       <c r="O65" t="n">
-        <v>0.08979591836734693</v>
+        <v>-0.0582010582010582</v>
       </c>
       <c r="P65" t="n">
-        <v>110</v>
+        <v>-22</v>
       </c>
       <c r="Q65" t="n">
-        <v>12622</v>
+        <v>2516.666666666667</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="66">
@@ -25514,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1486584880944588</v>
+        <v>0.6251697703125925</v>
       </c>
       <c r="N66" t="n">
-        <v>1.444286192519078</v>
+        <v>-0.4885366530433578</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1387755102040816</v>
+        <v>-0.05705705705705705</v>
       </c>
       <c r="P66" t="n">
-        <v>170</v>
+        <v>-38</v>
       </c>
       <c r="Q66" t="n">
-        <v>13692</v>
+        <v>5736</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -25839,25 +25839,25 @@
         <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>0.009504097600603334</v>
+        <v>0.03614983237685898</v>
       </c>
       <c r="N71" t="n">
-        <v>2.59336814059537</v>
+        <v>2.095238095238095</v>
       </c>
       <c r="O71" t="n">
-        <v>0.2522448979591837</v>
+        <v>0.2135265700483092</v>
       </c>
       <c r="P71" t="n">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="Q71" t="n">
-        <v>14105</v>
+        <v>11025</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="S71" t="n">
-        <v>2.421052631578947</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="72">
@@ -26099,25 +26099,25 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.2108807459352384</v>
+        <v>0.923614755097441</v>
       </c>
       <c r="N75" t="n">
-        <v>1.251147287063217</v>
+        <v>-0.09588141518882391</v>
       </c>
       <c r="O75" t="n">
-        <v>0.1191836734693878</v>
+        <v>-0.0126984126984127</v>
       </c>
       <c r="P75" t="n">
-        <v>146</v>
+        <v>-8</v>
       </c>
       <c r="Q75" t="n">
-        <v>13431.33333333333</v>
+        <v>5330</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -26157,32 +26157,32 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.01433481652150226</v>
+        <v>0.4041663847484855</v>
       </c>
       <c r="N76" t="n">
-        <v>2.448761919340344</v>
+        <v>0.8342033836521727</v>
       </c>
       <c r="O76" t="n">
-        <v>0.2375510204081633</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="P76" t="n">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Q76" t="n">
-        <v>14025</v>
+        <v>7869</v>
       </c>
       <c r="R76" t="n">
-        <v>0.125</v>
+        <v>0.06559139784946236</v>
       </c>
       <c r="S76" t="n">
-        <v>2.4375</v>
+        <v>5.688172043010753</v>
       </c>
     </row>
     <row r="77">
@@ -26294,19 +26294,19 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0.457491188878036</v>
+        <v>0.4913828936852183</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.7429842948205607</v>
+        <v>-0.6881109845448636</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.07265306122448979</v>
+        <v>-0.07053140096618357</v>
       </c>
       <c r="P78" t="n">
-        <v>-89</v>
+        <v>-73</v>
       </c>
       <c r="Q78" t="n">
-        <v>14028.33333333333</v>
+        <v>10948.33333333333</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.2064874209442005</v>
+        <v>0.3146467998598692</v>
       </c>
       <c r="N80" t="n">
-        <v>1.26328320180473</v>
+        <v>-1.005519426749776</v>
       </c>
       <c r="O80" t="n">
-        <v>0.116734693877551</v>
+        <v>-0.1310344827586207</v>
       </c>
       <c r="P80" t="n">
-        <v>143</v>
+        <v>-57</v>
       </c>
       <c r="Q80" t="n">
-        <v>12635</v>
+        <v>3101.666666666667</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="S80" t="n">
-        <v>2.5</v>
+        <v>6.708333333333333</v>
       </c>
     </row>
     <row r="81">
@@ -26554,25 +26554,25 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.1153251984213695</v>
+        <v>0.730547120402357</v>
       </c>
       <c r="N82" t="n">
-        <v>-1.574702205885247</v>
+        <v>-0.3443978302354009</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.1502040816326531</v>
+        <v>-0.0427807486631016</v>
       </c>
       <c r="P82" t="n">
-        <v>-184</v>
+        <v>-24</v>
       </c>
       <c r="Q82" t="n">
-        <v>13505.33333333333</v>
+        <v>4460</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
